--- a/medicine/Pharmacie/1951_en_santé_et_médecine/1951_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1951_en_santé_et_médecine/1951_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1951_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1951_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1951 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1951_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1951_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,21 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9 janvier :  Camille Guérin devient président de l'Académie de médecine[1].
-10 février : le médecin britannique Richard Asher décrit le syndrome de Münchausen dans un article publié dans The Lancet[2].
-11 mars : Philip Levine annonce devant l'Académie des sciences de New York qu'il a décelé le facteur J ou facteur Jarrell dans le sang des cancéreux[3].
-Avril : Linus Pauling, Robert Corey et Herman Branson publient la structure secondaire des protéines en hélice alpha[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9 janvier :  Camille Guérin devient président de l'Académie de médecine.
+10 février : le médecin britannique Richard Asher décrit le syndrome de Münchausen dans un article publié dans The Lancet.
+11 mars : Philip Levine annonce devant l'Académie des sciences de New York qu'il a décelé le facteur J ou facteur Jarrell dans le sang des cancéreux.
+Avril : Linus Pauling, Robert Corey et Herman Branson publient la structure secondaire des protéines en hélice alpha,.
 15 mai : le corps médical français recommande de ne pas interdire l’usage de la main gauche aux enfants, afin d’éviter l’apparition de troubles intellectuels.
-Mai : Linus Pauling et Robert Corey  publient la structure secondaire des protéines en feuillet beta[6].
-1er août : le chimiste américain Robert Burns Woodward publie ses travaux sur la synthèse de la cortisone[7].
-31 août : deux chercheurs de l'université d'Indiana (Bloomington), Joseph C. Muhler et Harry G. Day publient leurs recherches sur le fluorure stanneux et ses effets dans la prévention des caries[8].
-15 octobre : synthèse de la noréthistérone, le composé actif principal de la pilule contraceptive, par le chimiste mexicain Luis Miramontes, Carl Djerassi et George Rosenkranz, pour Syntex à Mexico[9].
-8 novembre : les médecins de la Saskatoon Cancer Clinic commencent à traiter le cancer au cobalt 60[10], un isotope radioactif qui permet de sauver 500 000 vies par an dans le monde entier. Il est aussi utilisé pour stériliser des fournitures médicales jetables, des onguents et des solutions.
-9 novembre : le médecin français Henri Laborit expérimente la chlorpromazine, un neuroleptique, sur Cornelia Quarti à l'hopital psychiatrique de Villejuif[11].</t>
+Mai : Linus Pauling et Robert Corey  publient la structure secondaire des protéines en feuillet beta.
+1er août : le chimiste américain Robert Burns Woodward publie ses travaux sur la synthèse de la cortisone.
+31 août : deux chercheurs de l'université d'Indiana (Bloomington), Joseph C. Muhler et Harry G. Day publient leurs recherches sur le fluorure stanneux et ses effets dans la prévention des caries.
+15 octobre : synthèse de la noréthistérone, le composé actif principal de la pilule contraceptive, par le chimiste mexicain Luis Miramontes, Carl Djerassi et George Rosenkranz, pour Syntex à Mexico.
+8 novembre : les médecins de la Saskatoon Cancer Clinic commencent à traiter le cancer au cobalt 60, un isotope radioactif qui permet de sauver 500 000 vies par an dans le monde entier. Il est aussi utilisé pour stériliser des fournitures médicales jetables, des onguents et des solutions.
+9 novembre : le médecin français Henri Laborit expérimente la chlorpromazine, un neuroleptique, sur Cornelia Quarti à l'hopital psychiatrique de Villejuif.</t>
         </is>
       </c>
     </row>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1951_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1951_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,6 +566,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1951_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1951_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>3 janvier : Gaston Cotte (né en 1879), chirurgien français.
 17 avril : Ernst Moro (né en 1874), médecin et pédiatre autrichien.
